--- a/phptest/donneesArtistes.xlsx
+++ b/phptest/donneesArtistes.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETML\2020-2021\01-Projet\042-GesProj2\phptest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ETML\2020-2021\01-Projet\042-GesProj2\phptest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98B68A8-B971-4CB8-8856-2C401E960BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22110" yWindow="1680" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{95E74F9D-E3F9-485E-9B12-2C5579953126}"/>
+    <workbookView xWindow="22110" yWindow="1680" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="artistes" sheetId="1" r:id="rId1"/>
-    <sheet name="musique" sheetId="2" r:id="rId2"/>
+    <sheet name="musiques" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>artNom</t>
   </si>
@@ -199,12 +198,15 @@
   </si>
   <si>
     <t xml:space="preserve">R&amp;B/Soul </t>
+  </si>
+  <si>
+    <t>Ti é plein de</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,7 +430,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Feuil1" xfId="1" xr:uid="{4333361E-EB82-4D7A-A185-9BC4E76D60E9}"/>
+    <cellStyle name="Normal_Feuil1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -739,11 +741,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC464A8-05C4-451A-B649-1C61DA93655D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,11 +913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200CFD66-6B2F-4AC3-8354-F145860F92ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,6 +1067,9 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
       <c r="E9">
         <v>3</v>
       </c>

--- a/phptest/donneesArtistes.xlsx
+++ b/phptest/donneesArtistes.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>artNom</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t xml:space="preserve">R&amp;B/Soul </t>
-  </si>
-  <si>
-    <t>Ti é plein de</t>
   </si>
 </sst>
 </file>
@@ -917,7 +914,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,9 +1064,6 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
